--- a/Templates/ERP-OS-Sync-RSLIL-ExcelTemplate-v1.4.xlsx
+++ b/Templates/ERP-OS-Sync-RSLIL-ExcelTemplate-v1.4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695" tabRatio="725"/>
@@ -2467,8 +2467,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3013,6 +3013,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3100,11 +3101,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3127,11 +3131,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3142,25 +3149,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3179,7 +3179,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3217,7 +3217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3251,7 +3251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3286,10 +3285,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3462,7 +3460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3470,7 +3468,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -3478,7 +3476,7 @@
     <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="57" t="s">
         <v>244</v>
       </c>
@@ -3487,7 +3485,7 @@
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
     </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="23.25">
       <c r="A2" s="91" t="s">
         <v>147</v>
       </c>
@@ -3496,82 +3494,82 @@
       <c r="D2" s="95"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="50" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="50" t="s">
         <v>202</v>
       </c>
@@ -3600,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -3608,7 +3606,7 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -3623,12 +3621,12 @@
     <col min="12" max="12" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.25">
       <c r="A3" s="93" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
@@ -3643,7 +3641,7 @@
       <c r="I3" s="93"/>
       <c r="J3" s="93"/>
     </row>
-    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="94" t="s">
         <v>151</v>
       </c>
@@ -3657,67 +3655,67 @@
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="158" t="s">
+      <c r="C8" s="141"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A10" s="161" t="s">
         <v>727</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A11" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>4</v>
       </c>
@@ -3749,7 +3747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="72" t="s">
         <v>141</v>
       </c>
@@ -3777,10 +3775,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
+    <row r="14" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A14" s="158"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="19">
         <v>2</v>
       </c>
@@ -3803,10 +3801,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
+    <row r="15" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A15" s="158"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="19">
         <v>3</v>
       </c>
@@ -3829,10 +3827,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
+    <row r="16" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="19">
         <v>4</v>
       </c>
@@ -3855,10 +3853,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
+    <row r="17" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A17" s="158"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="19">
         <v>5</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>4</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1">
       <c r="A19" s="72" t="s">
         <v>142</v>
       </c>
@@ -3935,10 +3933,10 @@
       <c r="I19" s="14"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
+    <row r="20" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A20" s="158"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="19" t="s">
         <v>144</v>
       </c>
@@ -3951,38 +3949,38 @@
       <c r="I20" s="14"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="158" t="s">
+    <row r="21" spans="1:10" ht="16.5" customHeight="1"/>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A22" s="161" t="s">
         <v>726</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
       <c r="J22" s="86"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159" t="s">
+    <row r="23" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A23" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="160" t="s">
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
       <c r="J23" s="87"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" customHeight="1">
       <c r="A24" s="45" t="s">
         <v>4</v>
       </c>
@@ -4014,7 +4012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="48.75" customHeight="1">
       <c r="A25" s="77" t="s">
         <v>141</v>
       </c>
@@ -4040,10 +4038,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A26" s="158"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="19">
         <v>2</v>
       </c>
@@ -4066,10 +4064,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
+    <row r="27" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A27" s="158"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="19">
         <v>3</v>
       </c>
@@ -4092,10 +4090,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
+    <row r="28" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A28" s="158"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="19">
         <v>4</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>4</v>
       </c>
@@ -4150,7 +4148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1">
       <c r="A30" s="77" t="s">
         <v>142</v>
       </c>
@@ -4178,10 +4176,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
+    <row r="31" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A31" s="158"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="19" t="s">
         <v>144</v>
       </c>
@@ -4198,7 +4196,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" customHeight="1">
       <c r="A33" s="77" t="s">
         <v>142</v>
       </c>
@@ -4226,10 +4224,10 @@
         <v>732</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="163"/>
+    <row r="34" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A34" s="158"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="160"/>
       <c r="D34" s="19" t="s">
         <v>732</v>
       </c>
@@ -4249,14 +4247,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
     <mergeCell ref="C6:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A11:C11"/>
@@ -4266,6 +4256,14 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E20 E13:E17 E30:E31 E33:E34 E25:E28">
@@ -4284,14 +4282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -4306,12 +4304,12 @@
     <col min="12" max="12" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.25">
       <c r="A3" s="57" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
@@ -4326,7 +4324,7 @@
       <c r="I3" s="58"/>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="94" t="s">
         <v>152</v>
       </c>
@@ -4340,67 +4338,67 @@
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="C8" s="141"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:10" ht="39.75" customHeight="1">
+      <c r="A10" s="166" t="s">
         <v>750</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A11" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>4</v>
       </c>
@@ -4432,7 +4430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="77" t="s">
         <v>141</v>
       </c>
@@ -4464,10 +4462,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
+    <row r="14" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A14" s="158"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="19">
         <f>D13+1</f>
         <v>2</v>
@@ -4491,10 +4489,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
+    <row r="15" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A15" s="158"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="19">
         <f t="shared" ref="D15:D21" si="0">D14+1</f>
         <v>3</v>
@@ -4518,10 +4516,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
+    <row r="16" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4545,10 +4543,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
+    <row r="17" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A17" s="158"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4572,10 +4570,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
+    <row r="18" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A18" s="158"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4599,10 +4597,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
+    <row r="19" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A19" s="158"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4624,7 +4622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="34.5" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="107"/>
       <c r="C20" s="108"/>
@@ -4645,7 +4643,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="34.5" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="107"/>
       <c r="C21" s="108"/>
@@ -4666,7 +4664,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>4</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="77" t="s">
         <v>142</v>
       </c>
@@ -4720,10 +4718,10 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
+    <row r="24" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A24" s="158"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
       <c r="D24" s="19" t="s">
         <v>144</v>
       </c>
@@ -4736,7 +4734,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="11">
@@ -4769,7 +4767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -4777,7 +4775,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -4788,14 +4786,14 @@
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="23.25">
       <c r="A3" s="57" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
@@ -4807,7 +4805,7 @@
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="23.25">
       <c r="A4" s="91" t="s">
         <v>39</v>
       </c>
@@ -4818,7 +4816,7 @@
       <c r="F4" s="97"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -4841,7 +4839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -4850,7 +4848,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="33.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -4859,7 +4857,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="33.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4868,7 +4866,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="30.75" customHeight="1"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G9">
@@ -4889,14 +4887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -4907,14 +4905,14 @@
     <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="23.25">
       <c r="A3" s="57" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
@@ -4928,7 +4926,7 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="91" t="s">
         <v>197</v>
       </c>
@@ -4941,7 +4939,7 @@
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -4970,7 +4968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -4981,7 +4979,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="33.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -4992,7 +4990,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="33.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -5003,7 +5001,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1"/>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I9">
@@ -5027,21 +5025,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -5049,7 +5047,7 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -5060,35 +5058,35 @@
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="23.25" customHeight="1">
       <c r="A3" s="59" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-    </row>
-    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+    </row>
+    <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="98" t="s">
         <v>145</v>
       </c>
       <c r="B4" s="98"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
@@ -5100,7 +5098,7 @@
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>203</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -5146,7 +5144,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>69</v>
       </c>
@@ -5158,7 +5156,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
@@ -5176,7 +5174,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="12" t="s">
         <v>8</v>
       </c>
@@ -5192,7 +5190,7 @@
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>203</v>
       </c>
@@ -5218,7 +5216,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="26" t="s">
         <v>78</v>
       </c>
@@ -5240,7 +5238,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="26" t="s">
         <v>185</v>
       </c>
@@ -5258,7 +5256,7 @@
       <c r="K16" s="88"/>
       <c r="L16" s="89"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="27" t="s">
         <v>10</v>
       </c>
@@ -5268,7 +5266,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="43"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="28" t="s">
         <v>83</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="26" t="s">
         <v>185</v>
       </c>
@@ -5308,7 +5306,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="18" t="s">
         <v>204</v>
       </c>
@@ -5322,7 +5320,7 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -5338,24 +5336,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
@@ -5396,7 +5394,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5421,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="27" t="s">
         <v>205</v>
       </c>
@@ -5431,7 +5429,7 @@
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="28" t="s">
         <v>14</v>
       </c>
@@ -5445,7 +5443,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="26" t="s">
         <v>185</v>
       </c>
@@ -5457,20 +5455,20 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="135"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -5507,23 +5505,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="90"/>
       <c r="B37" s="88"/>
       <c r="C37" s="88"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="118"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="119"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="63" t="s">
         <v>14</v>
       </c>
@@ -5546,16 +5544,16 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="133"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="132"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="134"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="63" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5567,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="80" t="s">
         <v>50</v>
       </c>
@@ -5578,7 +5576,7 @@
       <c r="D45" s="81"/>
       <c r="E45" s="82"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -5595,16 +5593,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="128" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="129"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="130"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="131"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>0</v>
@@ -5619,7 +5617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>1</v>
@@ -5634,7 +5632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>2</v>
@@ -5649,7 +5647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>40</v>
@@ -5658,16 +5656,16 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="128" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="130"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="131"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -5676,14 +5674,14 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="27" t="s">
         <v>217</v>
       </c>
@@ -5693,7 +5691,7 @@
       <c r="E56" s="42"/>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="28" t="s">
         <v>218</v>
       </c>
@@ -5709,7 +5707,7 @@
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="27" t="s">
         <v>222</v>
       </c>
@@ -5719,7 +5717,7 @@
       <c r="E60" s="42"/>
       <c r="F60" s="43"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="28" t="s">
         <v>14</v>
       </c>
@@ -5754,7 +5752,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>223</v>
       </c>
@@ -5780,7 +5778,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>224</v>
       </c>
@@ -5825,7 +5823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -5833,7 +5831,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -5842,50 +5840,50 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="50"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="57" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="140"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="91" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="92"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="142"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5" s="50"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137" t="s">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A6" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75">
       <c r="A8" s="2"/>
       <c r="B8" s="14" t="s">
         <v>172</v>
@@ -5917,16 +5915,16 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A9" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -5943,7 +5941,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>116</v>
       </c>
@@ -5956,7 +5954,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="51"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>744</v>
       </c>
@@ -5973,7 +5971,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>745</v>
       </c>
@@ -5990,7 +5988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>744</v>
       </c>
@@ -6007,7 +6005,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>744</v>
       </c>
@@ -6024,7 +6022,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>744</v>
       </c>
@@ -6041,7 +6039,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>744</v>
       </c>
@@ -6058,7 +6056,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>744</v>
       </c>
@@ -6075,7 +6073,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>744</v>
       </c>
@@ -6107,15 +6105,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -6136,42 +6134,42 @@
     <col min="18" max="18" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="str">
+    <row r="2" spans="1:9" ht="23.25">
+      <c r="A2" s="143" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="143" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25">
+      <c r="A3" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-    </row>
-    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+    </row>
+    <row r="4" spans="1:9" ht="29.25" customHeight="1"/>
+    <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
@@ -6200,7 +6198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>401</v>
       </c>
@@ -6225,7 +6223,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="36.75" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>264</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="36.75" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>268</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>274</v>
       </c>
@@ -6312,7 +6310,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="45.75" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>348</v>
       </c>
@@ -6341,7 +6339,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45.75" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>380</v>
       </c>
@@ -6366,7 +6364,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45.75" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>381</v>
       </c>
@@ -6395,7 +6393,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="45.75" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>400</v>
       </c>
@@ -6424,7 +6422,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45.75" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>400</v>
       </c>
@@ -6453,7 +6451,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45.75" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>102</v>
       </c>
@@ -6482,7 +6480,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45.75" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>399</v>
       </c>
@@ -6536,7 +6534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -6544,7 +6542,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
@@ -6568,38 +6566,38 @@
     <col min="21" max="21" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="142" t="str">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="3" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A3" s="143" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-    </row>
-    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="143" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A4" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-    </row>
-    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+    </row>
+    <row r="5" spans="1:7" ht="29.25" customHeight="1"/>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -6622,7 +6620,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="37.5" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>113</v>
       </c>
@@ -6641,7 +6639,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="37.5" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>297</v>
       </c>
@@ -6660,7 +6658,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="37.5" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>373</v>
       </c>
@@ -6707,7 +6705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -6715,7 +6713,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="78.7109375" customWidth="1"/>
@@ -6729,39 +6727,39 @@
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="142" t="str">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1"/>
+    <row r="3" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A3" s="143" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-    </row>
-    <row r="4" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="143" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+    </row>
+    <row r="4" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A4" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-    </row>
-    <row r="5" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+    </row>
+    <row r="5" spans="1:15" ht="33.75" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
@@ -6787,7 +6785,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>104</v>
       </c>
@@ -6803,7 +6801,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="49"/>
     </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="21" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>105</v>
       </c>
@@ -6829,7 +6827,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>106</v>
       </c>
@@ -6849,7 +6847,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>279</v>
       </c>
@@ -6871,7 +6869,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="18.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>280</v>
       </c>
@@ -6893,7 +6891,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>281</v>
       </c>
@@ -6915,7 +6913,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>282</v>
       </c>
@@ -6939,7 +6937,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="18.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6953,7 +6951,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6967,7 +6965,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="18.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>287</v>
       </c>
@@ -6987,7 +6985,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>284</v>
       </c>
@@ -7005,7 +7003,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>296</v>
       </c>
@@ -7025,7 +7023,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>637</v>
       </c>
@@ -7045,7 +7043,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>639</v>
       </c>
@@ -7065,7 +7063,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>653</v>
       </c>
@@ -7085,7 +7083,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>662</v>
       </c>
@@ -7105,7 +7103,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>712</v>
       </c>
@@ -7125,7 +7123,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>715</v>
       </c>
@@ -7173,7 +7171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AM146"/>
   <sheetViews>
@@ -7181,7 +7179,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -7197,15 +7195,15 @@
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="23.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="23.25">
       <c r="A3" s="57" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
@@ -7219,7 +7217,7 @@
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
     </row>
-    <row r="4" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="23.25">
       <c r="A4" s="91" t="s">
         <v>149</v>
       </c>
@@ -7232,40 +7230,40 @@
       <c r="H4" s="96"/>
       <c r="I4" s="96"/>
     </row>
-    <row r="5" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="23.25" customHeight="1">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="18.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="102"/>
     </row>
-    <row r="7" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="102"/>
     </row>
-    <row r="8" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="18.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="150" t="s">
         <v>761</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="148" t="s">
         <v>346</v>
       </c>
-      <c r="I8" s="166"/>
-    </row>
-    <row r="9" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="148"/>
+    </row>
+    <row r="9" spans="1:39" ht="18.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
@@ -7294,24 +7292,24 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="18.75" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="146"/>
-    </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+    </row>
+    <row r="11" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -7355,7 +7353,7 @@
       <c r="AL11"/>
       <c r="AM11"/>
     </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>423</v>
       </c>
@@ -7405,7 +7403,7 @@
       <c r="AL12"/>
       <c r="AM12"/>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>413</v>
       </c>
@@ -7452,7 +7450,7 @@
       <c r="AL13"/>
       <c r="AM13"/>
     </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>329</v>
       </c>
@@ -7496,7 +7494,7 @@
       <c r="AL14"/>
       <c r="AM14"/>
     </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>414</v>
       </c>
@@ -7540,7 +7538,7 @@
       <c r="AL15"/>
       <c r="AM15"/>
     </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>415</v>
       </c>
@@ -7584,7 +7582,7 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>416</v>
       </c>
@@ -7628,7 +7626,7 @@
       <c r="AL17"/>
       <c r="AM17"/>
     </row>
-    <row r="18" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>417</v>
       </c>
@@ -7672,7 +7670,7 @@
       <c r="AL18"/>
       <c r="AM18"/>
     </row>
-    <row r="19" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>418</v>
       </c>
@@ -7716,7 +7714,7 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>311</v>
       </c>
@@ -7760,7 +7758,7 @@
       <c r="AL20"/>
       <c r="AM20"/>
     </row>
-    <row r="21" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>328</v>
       </c>
@@ -7804,7 +7802,7 @@
       <c r="AL21"/>
       <c r="AM21"/>
     </row>
-    <row r="22" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>332</v>
       </c>
@@ -7848,7 +7846,7 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>313</v>
       </c>
@@ -7892,7 +7890,7 @@
       <c r="AL23"/>
       <c r="AM23"/>
     </row>
-    <row r="24" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>314</v>
       </c>
@@ -7936,7 +7934,7 @@
       <c r="AL24"/>
       <c r="AM24"/>
     </row>
-    <row r="25" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>319</v>
       </c>
@@ -7980,7 +7978,7 @@
       <c r="AL25"/>
       <c r="AM25"/>
     </row>
-    <row r="26" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B26" s="2" t="s">
         <v>317</v>
       </c>
@@ -8024,7 +8022,7 @@
       <c r="AL26"/>
       <c r="AM26"/>
     </row>
-    <row r="27" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>316</v>
       </c>
@@ -8068,7 +8066,7 @@
       <c r="AL27"/>
       <c r="AM27"/>
     </row>
-    <row r="28" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>320</v>
       </c>
@@ -8112,7 +8110,7 @@
       <c r="AL28"/>
       <c r="AM28"/>
     </row>
-    <row r="29" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>321</v>
       </c>
@@ -8156,7 +8154,7 @@
       <c r="AL29"/>
       <c r="AM29"/>
     </row>
-    <row r="30" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B30" s="2" t="s">
         <v>322</v>
       </c>
@@ -8200,7 +8198,7 @@
       <c r="AL30"/>
       <c r="AM30"/>
     </row>
-    <row r="31" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>324</v>
       </c>
@@ -8244,7 +8242,7 @@
       <c r="AL31"/>
       <c r="AM31"/>
     </row>
-    <row r="32" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -8298,7 +8296,7 @@
       <c r="AL32"/>
       <c r="AM32"/>
     </row>
-    <row r="33" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>325</v>
       </c>
@@ -8352,7 +8350,7 @@
       <c r="AL33"/>
       <c r="AM33"/>
     </row>
-    <row r="34" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B34" s="2" t="s">
         <v>326</v>
       </c>
@@ -8406,7 +8404,7 @@
       <c r="AL34"/>
       <c r="AM34"/>
     </row>
-    <row r="35" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B35" s="2" t="s">
         <v>323</v>
       </c>
@@ -8459,25 +8457,25 @@
       <c r="AL35"/>
       <c r="AM35"/>
     </row>
-    <row r="36" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="18.75" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="C36" s="144" t="s">
+      <c r="C36" s="145" t="s">
         <v>419</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="147"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="18.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="64" t="s">
         <v>336</v>
@@ -8496,7 +8494,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="18.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="64" t="s">
         <v>421</v>
@@ -8520,7 +8518,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="18.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="31" t="s">
         <v>4</v>
@@ -8539,24 +8537,24 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="18.75" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B40" s="78" t="s">
         <v>443</v>
       </c>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="145" t="s">
         <v>444</v>
       </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="146"/>
-    </row>
-    <row r="41" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="147"/>
+    </row>
+    <row r="41" spans="1:39" ht="18.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="64" t="s">
         <v>421</v>
@@ -8580,7 +8578,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="18.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="64" t="s">
         <v>446</v>
@@ -8599,7 +8597,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="18.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="64" t="s">
         <v>447</v>
@@ -8618,7 +8616,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="18.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="64" t="s">
         <v>335</v>
@@ -8637,24 +8635,24 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="18.75" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>338</v>
       </c>
       <c r="B45" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="145" t="s">
         <v>451</v>
       </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="146"/>
-    </row>
-    <row r="46" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="147"/>
+    </row>
+    <row r="46" spans="1:39" ht="18.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="64" t="s">
         <v>452</v>
@@ -8673,7 +8671,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="18.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="31" t="s">
         <v>453</v>
@@ -8692,7 +8690,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="18.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="31" t="s">
         <v>520</v>
@@ -8718,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="31" t="s">
         <v>459</v>
@@ -8737,7 +8735,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="31" t="s">
         <v>460</v>
@@ -8756,7 +8754,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="31" t="s">
         <v>461</v>
@@ -8775,7 +8773,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="31" t="s">
         <v>462</v>
@@ -8794,7 +8792,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="31" t="s">
         <v>463</v>
@@ -8813,7 +8811,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="31" t="s">
         <v>465</v>
@@ -8832,7 +8830,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="31" t="s">
         <v>467</v>
@@ -8851,7 +8849,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="31" t="s">
         <v>469</v>
@@ -8870,7 +8868,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="31" t="s">
         <v>471</v>
@@ -8889,7 +8887,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="31" t="s">
         <v>473</v>
@@ -8908,7 +8906,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="31" t="s">
         <v>478</v>
@@ -8927,7 +8925,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="31" t="s">
         <v>480</v>
@@ -8946,24 +8944,24 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B61" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="C61" s="144" t="s">
+      <c r="C61" s="145" t="s">
         <v>458</v>
       </c>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="146"/>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="147"/>
+    </row>
+    <row r="62" spans="1:9" ht="18.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="31" t="s">
         <v>336</v>
@@ -8982,7 +8980,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="31" t="s">
         <v>452</v>
@@ -9005,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="31" t="s">
         <v>506</v>
@@ -9024,7 +9022,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="31" t="s">
         <v>507</v>
@@ -9043,7 +9041,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="31" t="s">
         <v>510</v>
@@ -9062,7 +9060,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="31" t="s">
         <v>511</v>
@@ -9081,7 +9079,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="31" t="s">
         <v>513</v>
@@ -9100,7 +9098,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="31" t="s">
         <v>515</v>
@@ -9119,7 +9117,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="31" t="s">
         <v>517</v>
@@ -9138,24 +9136,24 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>402</v>
       </c>
       <c r="B71" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="C71" s="144" t="s">
+      <c r="C71" s="145" t="s">
         <v>342</v>
       </c>
-      <c r="D71" s="145"/>
-      <c r="E71" s="145"/>
-      <c r="F71" s="145"/>
-      <c r="G71" s="145"/>
-      <c r="H71" s="145"/>
-      <c r="I71" s="146"/>
-    </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="146"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="146"/>
+      <c r="I71" s="147"/>
+    </row>
+    <row r="72" spans="1:9" ht="18.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="64" t="s">
         <v>336</v>
@@ -9174,7 +9172,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="31" t="s">
         <v>4</v>
@@ -9193,7 +9191,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="64" t="s">
         <v>438</v>
@@ -9212,24 +9210,24 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>456</v>
       </c>
       <c r="B75" s="78" t="s">
         <v>343</v>
       </c>
-      <c r="C75" s="144" t="s">
+      <c r="C75" s="145" t="s">
         <v>344</v>
       </c>
-      <c r="D75" s="145"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="145"/>
-      <c r="G75" s="145"/>
-      <c r="H75" s="145"/>
-      <c r="I75" s="146"/>
-    </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="146"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="146"/>
+      <c r="H75" s="146"/>
+      <c r="I75" s="147"/>
+    </row>
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="64" t="s">
         <v>336</v>
@@ -9248,7 +9246,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="31" t="s">
         <v>4</v>
@@ -9267,7 +9265,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="31" t="s">
         <v>6</v>
@@ -9293,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="31" t="s">
         <v>438</v>
@@ -9312,24 +9310,24 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>486</v>
       </c>
       <c r="B80" s="78" t="s">
         <v>450</v>
       </c>
-      <c r="C80" s="144" t="s">
+      <c r="C80" s="145" t="s">
         <v>379</v>
       </c>
-      <c r="D80" s="145"/>
-      <c r="E80" s="145"/>
-      <c r="F80" s="145"/>
-      <c r="G80" s="145"/>
-      <c r="H80" s="145"/>
-      <c r="I80" s="146"/>
-    </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="147"/>
+    </row>
+    <row r="81" spans="1:9" ht="18.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="64" t="s">
         <v>336</v>
@@ -9348,7 +9346,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="64" t="s">
         <v>421</v>
@@ -9374,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="31" t="s">
         <v>4</v>
@@ -9393,7 +9391,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="31" t="s">
         <v>335</v>
@@ -9412,24 +9410,24 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>539</v>
       </c>
       <c r="B85" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="C85" s="144" t="s">
+      <c r="C85" s="145" t="s">
         <v>457</v>
       </c>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="145"/>
-      <c r="G85" s="145"/>
-      <c r="H85" s="145"/>
-      <c r="I85" s="146"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="146"/>
+      <c r="E85" s="146"/>
+      <c r="F85" s="146"/>
+      <c r="G85" s="146"/>
+      <c r="H85" s="146"/>
+      <c r="I85" s="147"/>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="31" t="s">
         <v>336</v>
@@ -9448,7 +9446,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="31" t="s">
         <v>484</v>
@@ -9467,7 +9465,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="109"/>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="31" t="s">
         <v>487</v>
@@ -9486,7 +9484,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="31" t="s">
         <v>488</v>
@@ -9505,7 +9503,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="31" t="s">
         <v>489</v>
@@ -9524,7 +9522,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="31" t="s">
         <v>490</v>
@@ -9543,7 +9541,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="31" t="s">
         <v>497</v>
@@ -9562,7 +9560,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="31" t="s">
         <v>491</v>
@@ -9581,7 +9579,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="31" t="s">
         <v>492</v>
@@ -9600,7 +9598,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="31" t="s">
         <v>493</v>
@@ -9619,7 +9617,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="31" t="s">
         <v>494</v>
@@ -9638,7 +9636,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="31" t="s">
         <v>495</v>
@@ -9657,7 +9655,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="31" t="s">
         <v>496</v>
@@ -9676,7 +9674,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="31" t="s">
         <v>498</v>
@@ -9695,7 +9693,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="31" t="s">
         <v>499</v>
@@ -9714,7 +9712,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="31" t="s">
         <v>500</v>
@@ -9733,7 +9731,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="31" t="s">
         <v>501</v>
@@ -9752,7 +9750,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="31" t="s">
         <v>502</v>
@@ -9771,7 +9769,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="31" t="s">
         <v>503</v>
@@ -9790,24 +9788,24 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>602</v>
       </c>
       <c r="B105" s="78" t="s">
         <v>540</v>
       </c>
-      <c r="C105" s="144" t="s">
+      <c r="C105" s="145" t="s">
         <v>548</v>
       </c>
-      <c r="D105" s="145"/>
-      <c r="E105" s="145"/>
-      <c r="F105" s="145"/>
-      <c r="G105" s="145"/>
-      <c r="H105" s="145"/>
-      <c r="I105" s="146"/>
-    </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="146"/>
+      <c r="E105" s="146"/>
+      <c r="F105" s="146"/>
+      <c r="G105" s="146"/>
+      <c r="H105" s="146"/>
+      <c r="I105" s="147"/>
+    </row>
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="31" t="s">
         <v>541</v>
@@ -9826,7 +9824,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="31" t="s">
         <v>543</v>
@@ -9845,7 +9843,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="31" t="s">
         <v>545</v>
@@ -9864,7 +9862,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="31" t="s">
         <v>547</v>
@@ -9883,7 +9881,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="31" t="s">
         <v>550</v>
@@ -9902,7 +9900,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="31" t="s">
         <v>581</v>
@@ -9921,7 +9919,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="31" t="s">
         <v>552</v>
@@ -9940,7 +9938,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="31" t="s">
         <v>554</v>
@@ -9959,7 +9957,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="31" t="s">
         <v>556</v>
@@ -9978,7 +9976,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="31" t="s">
         <v>557</v>
@@ -9997,7 +9995,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="31" t="s">
         <v>560</v>
@@ -10016,7 +10014,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="31" t="s">
         <v>562</v>
@@ -10035,7 +10033,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="31" t="s">
         <v>563</v>
@@ -10054,7 +10052,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="31" t="s">
         <v>565</v>
@@ -10073,7 +10071,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="31" t="s">
         <v>564</v>
@@ -10092,7 +10090,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="31" t="s">
         <v>566</v>
@@ -10111,7 +10109,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="31" t="s">
         <v>567</v>
@@ -10130,7 +10128,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="31" t="s">
         <v>568</v>
@@ -10149,7 +10147,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="31" t="s">
         <v>569</v>
@@ -10168,7 +10166,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="31" t="s">
         <v>570</v>
@@ -10187,7 +10185,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="18.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="31" t="s">
         <v>571</v>
@@ -10206,7 +10204,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="18.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="31" t="s">
         <v>572</v>
@@ -10225,7 +10223,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="18.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="31" t="s">
         <v>573</v>
@@ -10244,7 +10242,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="31" t="s">
         <v>574</v>
@@ -10263,7 +10261,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="31" t="s">
         <v>575</v>
@@ -10282,7 +10280,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="31" t="s">
         <v>576</v>
@@ -10301,7 +10299,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="31" t="s">
         <v>577</v>
@@ -10320,7 +10318,7 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="31" t="s">
         <v>578</v>
@@ -10339,7 +10337,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="31" t="s">
         <v>579</v>
@@ -10358,7 +10356,7 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="2"/>
       <c r="B135" s="31" t="s">
         <v>580</v>
@@ -10377,24 +10375,24 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>603</v>
       </c>
       <c r="B136" s="78" t="s">
         <v>604</v>
       </c>
-      <c r="C136" s="144" t="s">
+      <c r="C136" s="145" t="s">
         <v>605</v>
       </c>
-      <c r="D136" s="145"/>
-      <c r="E136" s="145"/>
-      <c r="F136" s="145"/>
-      <c r="G136" s="145"/>
-      <c r="H136" s="145"/>
-      <c r="I136" s="146"/>
-    </row>
-    <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="146"/>
+      <c r="E136" s="146"/>
+      <c r="F136" s="146"/>
+      <c r="G136" s="146"/>
+      <c r="H136" s="146"/>
+      <c r="I136" s="147"/>
+    </row>
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="31" t="s">
         <v>606</v>
@@ -10413,7 +10411,7 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="31" t="s">
         <v>4</v>
@@ -10432,7 +10430,7 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="31" t="s">
         <v>611</v>
@@ -10451,7 +10449,7 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="31" t="s">
         <v>610</v>
@@ -10470,7 +10468,7 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="31" t="s">
         <v>613</v>
@@ -10489,7 +10487,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="31" t="s">
         <v>615</v>
@@ -10508,7 +10506,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="31" t="s">
         <v>617</v>
@@ -10534,22 +10532,22 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1">
       <c r="A144" s="8" t="s">
         <v>620</v>
       </c>
       <c r="B144" s="78" t="s">
         <v>619</v>
       </c>
-      <c r="C144" s="144"/>
-      <c r="D144" s="145"/>
-      <c r="E144" s="145"/>
-      <c r="F144" s="145"/>
-      <c r="G144" s="145"/>
-      <c r="H144" s="145"/>
-      <c r="I144" s="146"/>
-    </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="145"/>
+      <c r="D144" s="146"/>
+      <c r="E144" s="146"/>
+      <c r="F144" s="146"/>
+      <c r="G144" s="146"/>
+      <c r="H144" s="146"/>
+      <c r="I144" s="147"/>
+    </row>
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="31" t="s">
         <v>621</v>
@@ -10568,7 +10566,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="31" t="s">
         <v>4</v>
@@ -10590,6 +10588,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="C144:I144"/>
     <mergeCell ref="C80:I80"/>
     <mergeCell ref="C85:I85"/>
@@ -10598,13 +10603,6 @@
     <mergeCell ref="C136:I136"/>
     <mergeCell ref="C71:I71"/>
     <mergeCell ref="C75:I75"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D37:D39 D41:D44 D72:D74 D76:D79 D86:D104 D81:D84 D62:D70 D11:D35 D106:D135 D137:D143 D145:D146">
@@ -10622,7 +10620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -10630,7 +10628,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
@@ -10643,12 +10641,12 @@
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.25">
       <c r="A3" s="57" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
@@ -10663,7 +10661,7 @@
       <c r="I3" s="60"/>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="91" t="s">
         <v>121</v>
       </c>
@@ -10677,25 +10675,25 @@
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="139"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="154"/>
+      <c r="F6" s="140"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="141"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="141"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="142"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
@@ -10718,7 +10716,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>116</v>
       </c>
@@ -10726,12 +10724,12 @@
         <v>290</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="151"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="153"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>355</v>
       </c>
@@ -10755,7 +10753,7 @@
         <v>act-manager</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>356</v>
       </c>
@@ -10774,7 +10772,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>756</v>
       </c>
@@ -10791,7 +10789,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>758</v>
       </c>
@@ -10808,7 +10806,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>303</v>
       </c>
@@ -10830,7 +10828,7 @@
         <v>erp-general</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>304</v>
       </c>
@@ -10852,7 +10850,7 @@
         <v>erp-general</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="31" t="s">
         <v>305</v>
       </c>
@@ -10874,7 +10872,7 @@
         <v>erp-general</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>306</v>
       </c>
@@ -10891,7 +10889,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>307</v>
       </c>
@@ -10908,7 +10906,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>308</v>
       </c>
@@ -10925,7 +10923,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>537</v>
       </c>
@@ -10942,7 +10940,7 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>624</v>
       </c>
@@ -10959,7 +10957,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="113"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>292</v>
       </c>
@@ -10967,12 +10965,12 @@
         <v>115</v>
       </c>
       <c r="C23" s="83"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="151"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="153"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>107</v>
       </c>
@@ -11014,15 +11012,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
@@ -11030,7 +11028,7 @@
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" customWidth="1"/>
@@ -11040,12 +11038,12 @@
     <col min="14" max="14" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="23.25">
       <c r="A3" s="93" t="str">
         <f>home!A1</f>
         <v>Prj-Demo - Demo System</v>
@@ -11064,47 +11062,47 @@
       <c r="M3" s="93"/>
       <c r="N3" s="93"/>
     </row>
-    <row r="4" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="143" t="s">
+    <row r="4" spans="1:14" ht="23.25">
+      <c r="A4" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="D6" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="84"/>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="139"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="140"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="D7" s="71" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="85"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="141"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="65" t="s">
         <v>116</v>
       </c>
@@ -11121,10 +11119,10 @@
       <c r="J9" s="69"/>
       <c r="K9" s="70"/>
       <c r="L9" s="69"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-    </row>
-    <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+    </row>
+    <row r="10" spans="1:14" ht="33" customHeight="1">
       <c r="A10" s="66" t="s">
         <v>3</v>
       </c>
@@ -11161,12 +11159,12 @@
       <c r="L10" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="154" t="s">
+      <c r="M10" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="154"/>
-    </row>
-    <row r="11" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="156"/>
+    </row>
+    <row r="11" spans="1:14" ht="51.75" customHeight="1">
       <c r="A11" s="79" t="s">
         <v>746</v>
       </c>
@@ -11210,7 +11208,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="60" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="60" customFormat="1" ht="47.25" customHeight="1">
       <c r="A12" s="114" t="s">
         <v>757</v>
       </c>
@@ -11242,7 +11240,7 @@
       <c r="M12" s="114"/>
       <c r="N12" s="116"/>
     </row>
-    <row r="13" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="47.25" customHeight="1">
       <c r="A13" s="79" t="s">
         <v>747</v>
       </c>
@@ -11272,7 +11270,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="47.25" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>642</v>
       </c>
@@ -11302,7 +11300,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="47.25" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>645</v>
       </c>
@@ -11332,7 +11330,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="47.25" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>646</v>
       </c>
@@ -11362,7 +11360,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="47.25" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>647</v>
       </c>
@@ -11392,7 +11390,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="47.25" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>659</v>
       </c>
@@ -11422,7 +11420,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="47.25" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>660</v>
       </c>
@@ -11452,7 +11450,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" s="60" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="60" customFormat="1" ht="47.25" customHeight="1">
       <c r="A20" s="114" t="s">
         <v>664</v>
       </c>
@@ -11482,7 +11480,7 @@
       <c r="M20" s="114"/>
       <c r="N20" s="116"/>
     </row>
-    <row r="21" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="47.25" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>666</v>
       </c>
@@ -11512,7 +11510,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="47.25" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>667</v>
       </c>
@@ -11542,7 +11540,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="47.25" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>668</v>
       </c>
@@ -11572,7 +11570,7 @@
       <c r="M23" s="21"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="47.25" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>669</v>
       </c>
@@ -11602,7 +11600,7 @@
       <c r="M24" s="21"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="47.25" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>670</v>
       </c>
@@ -11632,7 +11630,7 @@
       <c r="M25" s="21"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="47.25" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>671</v>
       </c>
@@ -11662,7 +11660,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="47.25" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>672</v>
       </c>
@@ -11692,7 +11690,7 @@
       <c r="M27" s="21"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="47.25" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>673</v>
       </c>
@@ -11722,7 +11720,7 @@
       <c r="M28" s="21"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="47.25" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>674</v>
       </c>
@@ -11752,7 +11750,7 @@
       <c r="M29" s="21"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="47.25" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>675</v>
       </c>
@@ -11782,7 +11780,7 @@
       <c r="M30" s="21"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="47.25" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>696</v>
       </c>
@@ -11812,7 +11810,7 @@
       <c r="M31" s="21"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="47.25" customHeight="1">
       <c r="A32" s="117" t="s">
         <v>707</v>
       </c>
@@ -11842,7 +11840,7 @@
       <c r="M32" s="21"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="47.25" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>708</v>
       </c>
@@ -11872,7 +11870,7 @@
       <c r="M33" s="21"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="47.25" customHeight="1">
       <c r="A34" s="117" t="s">
         <v>709</v>
       </c>
@@ -11902,7 +11900,7 @@
       <c r="M34" s="21"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="47.25" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>710</v>
       </c>
@@ -11932,7 +11930,7 @@
       <c r="M35" s="21"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="47.25" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>711</v>
       </c>
@@ -11962,7 +11960,7 @@
       <c r="M36" s="21"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="18" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>117</v>
       </c>
@@ -11979,10 +11977,10 @@
       <c r="J37" s="69"/>
       <c r="K37" s="70"/>
       <c r="L37" s="48"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-    </row>
-    <row r="38" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+    </row>
+    <row r="38" spans="1:14" ht="33" customHeight="1">
       <c r="A38" s="66" t="s">
         <v>3</v>
       </c>
@@ -12015,12 +12013,12 @@
       <c r="L38" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M38" s="154" t="s">
+      <c r="M38" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="N38" s="154"/>
-    </row>
-    <row r="39" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="156"/>
+    </row>
+    <row r="39" spans="1:14" ht="21" customHeight="1">
       <c r="A39" s="117" t="s">
         <v>735</v>
       </c>
